--- a/status_null_error2.xlsx
+++ b/status_null_error2.xlsx
@@ -9,7 +9,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhnqsnzAiZ9FnLoi3fl2V/5i4Mqjw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7minH2KipOU7acNuXKq3Nv8Ocn2ieQ=="/>
     </ext>
   </extLst>
 </workbook>
@@ -121,7 +121,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border/>
     <border>
       <left style="thin">
@@ -148,11 +148,6 @@
         <color rgb="FF000000"/>
       </top>
     </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
@@ -166,13 +161,9 @@
     <xf borderId="1" fillId="0" fontId="1" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -388,9 +379,6 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
-  <cols>
-    <col customWidth="1" min="1" max="6" width="14.43"/>
-  </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -491,7 +479,7 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="4">
+      <c r="A5" s="1">
         <v>4.0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -515,7 +503,9 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="6"/>
+      <c r="A6" s="1">
+        <v>5.0</v>
+      </c>
       <c r="B6" s="6" t="s">
         <v>18</v>
       </c>
@@ -537,45 +527,48 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="6">
         <v>8.0</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="6">
         <v>1.0</v>
       </c>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" ht="15.75" customHeight="1"/>
     <row r="11" ht="15.75" customHeight="1"/>
